--- a/StructureDefinition-ActorsMappedCapability.xlsx
+++ b/StructureDefinition-ActorsMappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:19:15+00:00</t>
+    <t>2021-11-15T15:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ActorsMappedCapability.xlsx
+++ b/StructureDefinition-ActorsMappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:28:51+00:00</t>
+    <t>2021-11-15T15:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ActorsMappedCapability.xlsx
+++ b/StructureDefinition-ActorsMappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:45:40+00:00</t>
+    <t>2021-11-15T15:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ActorsMappedCapability.xlsx
+++ b/StructureDefinition-ActorsMappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:54:02+00:00</t>
+    <t>2021-11-15T16:00:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
